--- a/QA/testcases/LLS/Pharmacy/008_L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Pharmacy/008_L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -57,7 +57,7 @@
     <t>Reference Step</t>
   </si>
   <si>
-    <t>LLSProviderLogin</t>
+    <t>LLSPharmacyLogin</t>
   </si>
   <si>
     <t>Launch URL and login as Pharmacy</t>
@@ -663,9 +663,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -698,6 +698,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -713,44 +805,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,62 +821,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,13 +836,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,13 +868,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,67 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,43 +934,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +970,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,25 +1048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,6 +1115,17 @@
       <left/>
       <right/>
       <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
@@ -1125,11 +1136,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,25 +1182,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1191,8 +1211,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,30 +1231,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,134 +1252,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1388,10 +1388,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1822,7 +1823,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1868,7 +1869,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7"/>
@@ -1883,110 +1884,110 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="7">
         <v>131</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7">
-        <v>91</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="7">
-        <v>7411</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+        <v>6794</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -1998,33 +1999,33 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
@@ -2043,26 +2044,26 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7">
@@ -2081,26 +2082,26 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7">
@@ -2119,24 +2120,24 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7">
@@ -2155,22 +2156,22 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
@@ -2189,7 +2190,7 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2204,13 +2205,13 @@
       <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
@@ -2237,26 +2238,26 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7">
@@ -2279,26 +2280,26 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7">
@@ -2323,20 +2324,20 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7">
@@ -2357,26 +2358,26 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="B27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7">
@@ -2397,26 +2398,26 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="B29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7">
@@ -2439,26 +2440,26 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="B31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
@@ -2477,24 +2478,24 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7">
@@ -2521,26 +2522,26 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="B35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
@@ -2559,22 +2560,22 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="B37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7">
@@ -2597,22 +2598,22 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
@@ -2631,7 +2632,7 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -2640,7 +2641,7 @@
       <c r="C41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="7"/>
@@ -2650,7 +2651,7 @@
       <c r="G41" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7">
@@ -2669,26 +2670,26 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7">
@@ -2713,26 +2714,26 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="B45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7">
@@ -2751,28 +2752,28 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7">
@@ -2795,20 +2796,20 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9">
         <v>3</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7">
@@ -2829,20 +2830,20 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="8">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9">
         <v>1</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
@@ -2869,28 +2870,28 @@
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
@@ -2915,24 +2916,24 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9">
         <v>4</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7">
@@ -2957,26 +2958,26 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="8">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="B57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
@@ -2995,22 +2996,22 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="8">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="B59" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
@@ -3035,22 +3036,22 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="8">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="8" t="s">
+      <c r="B61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
@@ -3075,24 +3076,24 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="8">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="9">
         <v>200</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
@@ -3117,20 +3118,20 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="8">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9">
         <v>3</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
@@ -3153,28 +3154,28 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="8">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
@@ -3199,20 +3200,20 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="8">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9">
         <v>2</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
@@ -3233,24 +3234,24 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="8">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="C71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
@@ -3271,20 +3272,20 @@
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="8">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9">
         <v>10</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
@@ -3296,7 +3297,7 @@
       <c r="C74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E74" s="7"/>
@@ -3309,20 +3310,20 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="8">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9">
         <v>10</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
@@ -3347,26 +3348,26 @@
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="8">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="C77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
@@ -3391,20 +3392,20 @@
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="8">
+      <c r="A79" s="9">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9">
         <v>5</v>
       </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
@@ -3431,24 +3432,24 @@
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="8">
+      <c r="A81" s="9">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
@@ -3471,24 +3472,24 @@
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="8">
+      <c r="A83" s="9">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
@@ -3511,24 +3512,24 @@
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="8">
+      <c r="A85" s="9">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="9">
         <v>10002</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
@@ -3551,20 +3552,20 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="8">
+      <c r="A87" s="9">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9">
         <v>3</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
@@ -3585,20 +3586,20 @@
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="8">
+      <c r="A89" s="9">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9">
         <v>1</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7">
@@ -3625,28 +3626,28 @@
       <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="8">
+      <c r="A91" s="9">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H91" s="8"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7">
@@ -3671,24 +3672,24 @@
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="8">
+      <c r="A93" s="9">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9">
         <v>4</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="8"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7">
@@ -3713,26 +3714,26 @@
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="8">
+      <c r="A95" s="9">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="B95" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H95" s="8"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7">
@@ -3751,22 +3752,22 @@
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="8">
+      <c r="A97" s="9">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="B97" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
@@ -3791,22 +3792,22 @@
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="8">
+      <c r="A99" s="9">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="B99" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7">
@@ -3831,24 +3832,24 @@
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="8">
+      <c r="A101" s="9">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="C101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="9">
         <v>200</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
@@ -3873,20 +3874,20 @@
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="8">
+      <c r="A103" s="9">
         <v>102</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9">
         <v>3</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7">
@@ -3909,28 +3910,28 @@
       <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="8">
+      <c r="A105" s="9">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H105" s="8"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7">
@@ -3955,20 +3956,20 @@
       <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="8">
+      <c r="A107" s="9">
         <v>106</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
         <v>2</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
@@ -3989,24 +3990,24 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="8">
+      <c r="A109" s="9">
         <v>108</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="C109" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7">
@@ -4027,20 +4028,20 @@
       <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="8">
+      <c r="A111" s="9">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
         <v>10</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7">
@@ -4052,7 +4053,7 @@
       <c r="C112" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E112" s="7"/>
@@ -4065,20 +4066,20 @@
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="8">
+      <c r="A113" s="9">
         <v>112</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9">
         <v>10</v>
       </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7">
@@ -4103,26 +4104,26 @@
       <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="8">
+      <c r="A115" s="9">
         <v>114</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D115" s="8" t="s">
+      <c r="C115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
+      <c r="E115" s="9"/>
+      <c r="F115" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H115" s="8"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7">
@@ -4147,36 +4148,36 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="8">
+      <c r="A117" s="9">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8">
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9">
         <v>4</v>
       </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B9 B4:B6 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 B7:B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 B7:B8 C4:C6">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B11:B12 B13:B14">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20:B25 B52:B58 B90:B96">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41 C41 B74 C74 B112 C112">
@@ -4184,12 +4185,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45 C45 B46 B47 B78 C78 B79 B82 B83 B84 C84 B85 C85 B15:B16 B17:B18 B26:B35 B36:B40 B42:B44 B48:B49 B50:B51 B59:B68 B69:B73 B75:B77 B80:B81 B86:B87 B88:B89 B97:B106 B107:B111 B113:B115 B116:B117 C15:C16 C17:C18 C26:C35 C36:C40 C42:C44 C46:C47 C48:C49 C50:C51 C59:C68 C69:C73 C75:C77 C79:C81 C82:C83 C86:C87 C88:C89 C97:C106 C107:C111 C113:C115 C116:C117">
       <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B25 B52:B58 B90:B96">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6">
-      <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
